--- a/Lab 1 Submissions/Product_BackLog.xlsx
+++ b/Lab 1 Submissions/Product_BackLog.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubProjects\cz3002_teamsportz\Lab 1 Submissions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NTU\Y2S2\cz3002_ASE\cz3002_teamsportz\Lab 1 Submissions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01D505C-4F44-4F13-A38A-953594307D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5136" yWindow="2976" windowWidth="23412" windowHeight="12660" xr2:uid="{1C014455-5009-493B-B192-14A0086967EE}"/>
+    <workbookView xWindow="5130" yWindow="2970" windowWidth="23415" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -525,11 +524,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,9 +680,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -692,6 +688,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1007,50 +1006,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A820D915-DE86-410C-B658-0AF559F3CD7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C62" activeCellId="1" sqref="C61 C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:22" ht="27" thickBot="1">
+      <c r="A1" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="24"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="23"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -1061,7 +1060,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -1072,7 +1071,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -1094,7 +1093,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>134</v>
       </c>
@@ -1105,7 +1104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -1116,7 +1115,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -1127,14 +1126,14 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:22">
+      <c r="A10" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>139</v>
       </c>
@@ -1145,7 +1144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -1156,7 +1155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="15.75" thickBot="1">
       <c r="A13" t="s">
         <v>138</v>
       </c>
@@ -1167,7 +1166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="15.75" thickBot="1">
       <c r="A14" t="s">
         <v>131</v>
       </c>
@@ -1185,7 +1184,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>132</v>
       </c>
@@ -1196,14 +1195,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:22">
+      <c r="A16" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>139</v>
       </c>
@@ -1214,7 +1213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -1225,7 +1224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>142</v>
       </c>
@@ -1236,7 +1235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>143</v>
       </c>
@@ -1247,7 +1246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -1258,7 +1257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>145</v>
       </c>
@@ -1269,7 +1268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -1280,7 +1279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>147</v>
       </c>
@@ -1291,7 +1290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -1302,7 +1301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>132</v>
       </c>
@@ -1313,14 +1312,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -1331,7 +1330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>149</v>
       </c>
@@ -1342,7 +1341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>150</v>
       </c>
@@ -1353,7 +1352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>151</v>
       </c>
@@ -1364,7 +1363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>152</v>
       </c>
@@ -1375,7 +1374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>153</v>
       </c>
@@ -1386,7 +1385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -1397,7 +1396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>132</v>
       </c>
@@ -1408,14 +1407,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
+    <row r="36" spans="1:15">
+      <c r="A36" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>155</v>
       </c>
@@ -1426,7 +1425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>139</v>
       </c>
@@ -1437,7 +1436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="19.899999999999999" customHeight="1">
       <c r="A39" t="s">
         <v>156</v>
       </c>
@@ -1448,7 +1447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>157</v>
       </c>
@@ -1459,7 +1458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>158</v>
       </c>
@@ -1470,7 +1469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>159</v>
       </c>
@@ -1481,7 +1480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>160</v>
       </c>
@@ -1492,7 +1491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>131</v>
       </c>
@@ -1503,7 +1502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>132</v>
       </c>
@@ -1514,7 +1513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>161</v>
       </c>
@@ -1525,8 +1524,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:15" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="48" spans="1:15" ht="27" thickBot="1">
       <c r="A48" s="3" t="s">
         <v>0</v>
       </c>
@@ -1545,7 +1544,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -1556,7 +1555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15">
       <c r="A50" s="6" t="s">
         <v>10</v>
       </c>
@@ -1575,7 +1574,7 @@
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15">
       <c r="A51" s="4" t="s">
         <v>4</v>
       </c>
@@ -1583,10 +1582,10 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="4" t="s">
         <v>5</v>
       </c>
@@ -1594,10 +1593,10 @@
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="4" t="s">
         <v>9</v>
       </c>
@@ -1608,7 +1607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15">
       <c r="A54" s="4" t="s">
         <v>14</v>
       </c>
@@ -1619,7 +1618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15">
       <c r="A55" s="4" t="s">
         <v>8</v>
       </c>
@@ -1630,7 +1629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15">
       <c r="A56" s="4" t="s">
         <v>15</v>
       </c>
@@ -1641,7 +1640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15">
       <c r="A57" s="4" t="s">
         <v>17</v>
       </c>
@@ -1652,7 +1651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15">
       <c r="A58" s="4" t="s">
         <v>18</v>
       </c>
@@ -1663,7 +1662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15">
       <c r="A59" s="4" t="s">
         <v>16</v>
       </c>
@@ -1674,14 +1673,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15">
       <c r="A60" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15">
       <c r="A61" s="4" t="s">
         <v>6</v>
       </c>
@@ -1692,7 +1691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -1703,7 +1702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15">
       <c r="A63" s="4" t="s">
         <v>19</v>
       </c>
@@ -1714,7 +1713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15">
       <c r="A64" s="4" t="s">
         <v>21</v>
       </c>
@@ -1725,7 +1724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" s="4" t="s">
         <v>20</v>
       </c>
@@ -1736,7 +1735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" s="4" t="s">
         <v>22</v>
       </c>
@@ -1747,14 +1746,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" s="4" t="s">
         <v>35</v>
       </c>
@@ -1765,7 +1764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" s="4" t="s">
         <v>36</v>
       </c>
@@ -1776,7 +1775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" s="4" t="s">
         <v>37</v>
       </c>
@@ -1787,7 +1786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" s="4" t="s">
         <v>38</v>
       </c>
@@ -1798,7 +1797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" s="4" t="s">
         <v>39</v>
       </c>
@@ -1809,7 +1808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" s="4" t="s">
         <v>40</v>
       </c>
@@ -1820,7 +1819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" s="4" t="s">
         <v>28</v>
       </c>
@@ -1831,7 +1830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" s="4" t="s">
         <v>29</v>
       </c>
@@ -1842,7 +1841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" s="4" t="s">
         <v>30</v>
       </c>
@@ -1853,7 +1852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" s="4" t="s">
         <v>31</v>
       </c>
@@ -1864,7 +1863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" s="4" t="s">
         <v>32</v>
       </c>
@@ -1875,7 +1874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" s="4" t="s">
         <v>33</v>
       </c>
@@ -1886,7 +1885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15">
       <c r="A81" s="4" t="s">
         <v>34</v>
       </c>
@@ -1897,14 +1896,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15">
       <c r="A82" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15">
       <c r="A83" s="4" t="s">
         <v>23</v>
       </c>
@@ -1915,7 +1914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15">
       <c r="A84" s="4" t="s">
         <v>24</v>
       </c>
@@ -1926,7 +1925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15">
       <c r="A85" s="4" t="s">
         <v>25</v>
       </c>
@@ -1937,7 +1936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:15" ht="26.25">
       <c r="A86" s="4" t="s">
         <v>26</v>
       </c>
@@ -1960,14 +1959,14 @@
       <c r="N86" s="10"/>
       <c r="O86" s="10"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15">
       <c r="A87" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15">
       <c r="A88" s="12" t="s">
         <v>65</v>
       </c>
@@ -1988,7 +1987,7 @@
       <c r="N88" s="8"/>
       <c r="O88" s="8"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15">
       <c r="A89" s="12" t="s">
         <v>66</v>
       </c>
@@ -2008,14 +2007,14 @@
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15">
       <c r="A90" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15">
       <c r="A91" s="12" t="s">
         <v>68</v>
       </c>
@@ -2026,7 +2025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15">
       <c r="A92" s="12" t="s">
         <v>69</v>
       </c>
@@ -2037,7 +2036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" ht="15.75" thickBot="1">
       <c r="A93" s="12" t="s">
         <v>70</v>
       </c>
@@ -2050,7 +2049,7 @@
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
     </row>
-    <row r="94" spans="1:15" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:15" ht="27" thickBot="1">
       <c r="A94" s="15" t="s">
         <v>27</v>
       </c>
@@ -2069,7 +2068,7 @@
       <c r="N94" s="16"/>
       <c r="O94" s="17"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -2080,14 +2079,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15">
       <c r="A96" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>48</v>
       </c>
@@ -2098,7 +2097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>50</v>
       </c>
@@ -2109,7 +2108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>51</v>
       </c>
@@ -2120,14 +2119,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>53</v>
       </c>
@@ -2138,7 +2137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>54</v>
       </c>
@@ -2149,7 +2148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>49</v>
       </c>
@@ -2160,7 +2159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>52</v>
       </c>
@@ -2171,14 +2170,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>41</v>
       </c>
@@ -2189,7 +2188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>56</v>
       </c>
@@ -2200,7 +2199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>55</v>
       </c>
@@ -2211,7 +2210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>57</v>
       </c>
@@ -2222,7 +2221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>59</v>
       </c>
@@ -2233,7 +2232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>60</v>
       </c>
@@ -2244,7 +2243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>58</v>
       </c>
@@ -2255,14 +2254,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3">
       <c r="A113" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>42</v>
       </c>
@@ -2273,7 +2272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>43</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>44</v>
       </c>
@@ -2295,7 +2294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>46</v>
       </c>
@@ -2306,7 +2305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>62</v>
       </c>
@@ -2317,7 +2316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>76</v>
       </c>
@@ -2328,7 +2327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>45</v>
       </c>
@@ -2339,7 +2338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>63</v>
       </c>
@@ -2350,7 +2349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>61</v>
       </c>
@@ -2361,14 +2360,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3">
       <c r="A123" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3">
       <c r="A124" s="13" t="s">
         <v>71</v>
       </c>
@@ -2379,7 +2378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3">
       <c r="A125" s="13" t="s">
         <v>72</v>
       </c>
@@ -2390,14 +2389,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3">
       <c r="A126" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3">
       <c r="A127" s="14" t="s">
         <v>73</v>
       </c>
@@ -2408,7 +2407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3">
       <c r="A128" s="14" t="s">
         <v>74</v>
       </c>
@@ -2419,7 +2418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" ht="15.75" thickBot="1">
       <c r="A129" s="14" t="s">
         <v>75</v>
       </c>
@@ -2430,7 +2429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:15" ht="27" thickBot="1">
       <c r="A130" s="3" t="s">
         <v>77</v>
       </c>
@@ -2449,14 +2448,14 @@
       <c r="N130" s="18"/>
       <c r="O130" s="19"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15">
       <c r="A131" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15">
       <c r="A132" s="14" t="s">
         <v>79</v>
       </c>
@@ -2467,7 +2466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15">
       <c r="A133" s="14" t="s">
         <v>78</v>
       </c>
@@ -2478,7 +2477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15">
       <c r="A134" t="s">
         <v>80</v>
       </c>
@@ -2489,7 +2488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -2500,7 +2499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15">
       <c r="A136" t="s">
         <v>82</v>
       </c>
@@ -2511,7 +2510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15">
       <c r="A137" t="s">
         <v>83</v>
       </c>
@@ -2522,7 +2521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15">
       <c r="A138" t="s">
         <v>84</v>
       </c>
@@ -2533,7 +2532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15">
       <c r="A139" t="s">
         <v>85</v>
       </c>
@@ -2544,7 +2543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15">
       <c r="A140" t="s">
         <v>86</v>
       </c>
@@ -2555,14 +2554,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15">
       <c r="A141" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15">
       <c r="A142" t="s">
         <v>90</v>
       </c>
@@ -2573,7 +2572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15">
       <c r="A143" t="s">
         <v>89</v>
       </c>
@@ -2584,7 +2583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15">
       <c r="A144" t="s">
         <v>87</v>
       </c>
@@ -2595,7 +2594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14">
       <c r="A145" t="s">
         <v>88</v>
       </c>
@@ -2606,7 +2605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14">
       <c r="A146" t="s">
         <v>92</v>
       </c>
@@ -2617,7 +2616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14">
       <c r="A147" t="s">
         <v>91</v>
       </c>
@@ -2628,7 +2627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14">
       <c r="A148" t="s">
         <v>94</v>
       </c>
@@ -2639,7 +2638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" ht="15.75" thickBot="1">
       <c r="A149" t="s">
         <v>93</v>
       </c>
@@ -2650,7 +2649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:14" ht="27" thickBot="1">
       <c r="A150" s="3" t="s">
         <v>95</v>
       </c>
@@ -2668,14 +2667,14 @@
       <c r="M150" s="1"/>
       <c r="N150" s="2"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14">
       <c r="A151" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14">
       <c r="A152" t="s">
         <v>96</v>
       </c>
@@ -2686,14 +2685,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14">
       <c r="A153" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14">
       <c r="A154" t="s">
         <v>97</v>
       </c>
@@ -2704,7 +2703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14">
       <c r="A155" t="s">
         <v>98</v>
       </c>
@@ -2715,7 +2714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14">
       <c r="A156" t="s">
         <v>99</v>
       </c>
@@ -2726,7 +2725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14">
       <c r="A157" t="s">
         <v>100</v>
       </c>
@@ -2737,7 +2736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14">
       <c r="A158" t="s">
         <v>101</v>
       </c>
@@ -2748,7 +2747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14">
       <c r="A159" t="s">
         <v>102</v>
       </c>
@@ -2759,14 +2758,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14">
       <c r="A160" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15">
       <c r="A161" t="s">
         <v>35</v>
       </c>
@@ -2777,7 +2776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15">
       <c r="A162" t="s">
         <v>103</v>
       </c>
@@ -2788,7 +2787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15">
       <c r="A163" t="s">
         <v>104</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15">
       <c r="A164" t="s">
         <v>105</v>
       </c>
@@ -2810,7 +2809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15">
       <c r="A165" t="s">
         <v>106</v>
       </c>
@@ -2821,7 +2820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15">
       <c r="A166" t="s">
         <v>107</v>
       </c>
@@ -2832,7 +2831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15">
       <c r="A167" t="s">
         <v>108</v>
       </c>
@@ -2843,7 +2842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15">
       <c r="A168" t="s">
         <v>109</v>
       </c>
@@ -2854,7 +2853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15">
       <c r="A169" t="s">
         <v>110</v>
       </c>
@@ -2865,7 +2864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15">
       <c r="A170" t="s">
         <v>111</v>
       </c>
@@ -2876,7 +2875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15">
       <c r="A171" t="s">
         <v>112</v>
       </c>
@@ -2887,14 +2886,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15">
       <c r="A172" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15">
       <c r="A173" t="s">
         <v>118</v>
       </c>
@@ -2905,7 +2904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" ht="15.75" thickBot="1">
       <c r="A174" t="s">
         <v>117</v>
       </c>
@@ -2916,7 +2915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:15" ht="27" thickBot="1">
       <c r="A175" s="3" t="s">
         <v>114</v>
       </c>
@@ -2935,14 +2934,14 @@
       <c r="N175" s="1"/>
       <c r="O175" s="2"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15">
       <c r="A176" s="20" t="s">
         <v>47</v>
       </c>
       <c r="B176" s="20"/>
       <c r="C176" s="20"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>119</v>
       </c>
@@ -2953,7 +2952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>120</v>
       </c>
@@ -2964,7 +2963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>121</v>
       </c>
@@ -2975,7 +2974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>122</v>
       </c>
@@ -2986,14 +2985,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3">
       <c r="A181" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>123</v>
       </c>
@@ -3004,7 +3003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>124</v>
       </c>
@@ -3015,14 +3014,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3">
       <c r="A184" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>125</v>
       </c>
@@ -3033,7 +3032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>126</v>
       </c>
@@ -3046,15 +3045,15 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A36:C36"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C51:C59 C61:C66 C83:C86 C69:C81 C97:C99 C101:C104 C106:C112 C114:C122 C88:C89 C91:C93 C124:C125 C127:C129 C132:C140 C142:C149 C154:C159 C161:C171 C152 C173:C174 C177:C180 C182:C183 C185:C186 C3:C9 C11:C15 C17:C26 C28:C35 C37:C46" xr:uid="{EA2077B9-CEDF-49B1-BD93-E5E3DADBCD74}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C51:C59 C61:C66 C83:C86 C69:C81 C97:C99 C101:C104 C106:C112 C114:C122 C88:C89 C91:C93 C124:C125 C127:C129 C132:C140 C142:C149 C154:C159 C161:C171 C152 C173:C174 C177:C180 C182:C183 C185:C186 C3:C9 C11:C15 C17:C26 C28:C35 C37:C46">
       <formula1>"Complete, Incomplete"</formula1>
     </dataValidation>
   </dataValidations>
